--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H2">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I2">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J2">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N2">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O2">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P2">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q2">
-        <v>37.384585031024</v>
+        <v>6.782069220222223</v>
       </c>
       <c r="R2">
-        <v>336.461265279216</v>
+        <v>61.03862298200001</v>
       </c>
       <c r="S2">
-        <v>0.122006490974997</v>
+        <v>0.03258832201416227</v>
       </c>
       <c r="T2">
-        <v>0.1220064909749971</v>
+        <v>0.03258832201416227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H3">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I3">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J3">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.173052</v>
       </c>
       <c r="O3">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P3">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q3">
-        <v>8.355129726504002</v>
+        <v>1.78075430368</v>
       </c>
       <c r="R3">
-        <v>75.196167538536</v>
+        <v>16.02678873312</v>
       </c>
       <c r="S3">
-        <v>0.02726738998776357</v>
+        <v>0.008556650307165055</v>
       </c>
       <c r="T3">
-        <v>0.02726738998776358</v>
+        <v>0.008556650307165056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H4">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I4">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J4">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N4">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O4">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P4">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q4">
-        <v>107.4801508728053</v>
+        <v>37.05976997760889</v>
       </c>
       <c r="R4">
-        <v>967.3213578552479</v>
+        <v>333.53792979848</v>
       </c>
       <c r="S4">
-        <v>0.3507669283094101</v>
+        <v>0.1780748144238978</v>
       </c>
       <c r="T4">
-        <v>0.3507669283094102</v>
+        <v>0.1780748144238979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H5">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I5">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J5">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N5">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O5">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P5">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q5">
-        <v>46.47682132396201</v>
+        <v>16.51572130821333</v>
       </c>
       <c r="R5">
-        <v>418.291391915658</v>
+        <v>148.64149177392</v>
       </c>
       <c r="S5">
-        <v>0.1516794656595175</v>
+        <v>0.07935920834948099</v>
       </c>
       <c r="T5">
-        <v>0.1516794656595176</v>
+        <v>0.079359208349481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H6">
         <v>101.380791</v>
       </c>
       <c r="I6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N6">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O6">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P6">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q6">
-        <v>8.722262560088001</v>
+        <v>7.424171647591668</v>
       </c>
       <c r="R6">
-        <v>78.50036304079201</v>
+        <v>66.81754482832501</v>
       </c>
       <c r="S6">
-        <v>0.02846554662665952</v>
+        <v>0.03567366956661693</v>
       </c>
       <c r="T6">
-        <v>0.02846554662665952</v>
+        <v>0.03567366956661693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H7">
         <v>101.380791</v>
       </c>
       <c r="I7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.173052</v>
       </c>
       <c r="O7">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P7">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q7">
-        <v>1.949349849348001</v>
+        <v>1.949349849348</v>
       </c>
       <c r="R7">
         <v>17.544148644132</v>
       </c>
       <c r="S7">
-        <v>0.006361802186762807</v>
+        <v>0.009366763821783851</v>
       </c>
       <c r="T7">
-        <v>0.006361802186762809</v>
+        <v>0.009366763821783853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H8">
         <v>101.380791</v>
       </c>
       <c r="I8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N8">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O8">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P8">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q8">
-        <v>25.07638095039734</v>
+        <v>40.56845847483367</v>
       </c>
       <c r="R8">
-        <v>225.687428553576</v>
+        <v>365.116126273503</v>
       </c>
       <c r="S8">
-        <v>0.0818380421655422</v>
+        <v>0.1949343106752796</v>
       </c>
       <c r="T8">
-        <v>0.08183804216554222</v>
+        <v>0.1949343106752796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H9">
         <v>101.380791</v>
       </c>
       <c r="I9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N9">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O9">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P9">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q9">
-        <v>10.843588024569</v>
+        <v>18.079371633418</v>
       </c>
       <c r="R9">
-        <v>97.59229222112101</v>
+        <v>162.714344700762</v>
       </c>
       <c r="S9">
-        <v>0.0353885999632808</v>
+        <v>0.0868726586934233</v>
       </c>
       <c r="T9">
-        <v>0.0353885999632808</v>
+        <v>0.08687265869342331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H10">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I10">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J10">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N10">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O10">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P10">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q10">
-        <v>0.5866831251306667</v>
+        <v>0.6549416477527779</v>
       </c>
       <c r="R10">
-        <v>5.280148126176</v>
+        <v>5.894474829775</v>
       </c>
       <c r="S10">
-        <v>0.001914670160228794</v>
+        <v>0.003147040913975546</v>
       </c>
       <c r="T10">
-        <v>0.001914670160228796</v>
+        <v>0.003147040913975546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H11">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I11">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J11">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.173052</v>
       </c>
       <c r="O11">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P11">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q11">
-        <v>0.131118577744</v>
+        <v>0.171966713996</v>
       </c>
       <c r="R11">
-        <v>1.180067199696</v>
+        <v>1.547700425964</v>
       </c>
       <c r="S11">
-        <v>0.0004279121343436669</v>
+        <v>0.0008263122167360258</v>
       </c>
       <c r="T11">
-        <v>0.000427912134343667</v>
+        <v>0.0008263122167360258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H12">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I12">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J12">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N12">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O12">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P12">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q12">
-        <v>1.686705650236444</v>
+        <v>3.578846813020112</v>
       </c>
       <c r="R12">
-        <v>15.180350852128</v>
+        <v>32.209621317181</v>
       </c>
       <c r="S12">
-        <v>0.005504649510547541</v>
+        <v>0.01719661191813025</v>
       </c>
       <c r="T12">
-        <v>0.005504649510547544</v>
+        <v>0.01719661191813025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H13">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I13">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J13">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N13">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O13">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P13">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q13">
-        <v>0.729369250932</v>
+        <v>1.594916444552667</v>
       </c>
       <c r="R13">
-        <v>6.564323258388001</v>
+        <v>14.354248000974</v>
       </c>
       <c r="S13">
-        <v>0.002380333574852521</v>
+        <v>0.007663686257549291</v>
       </c>
       <c r="T13">
-        <v>0.002380333574852521</v>
+        <v>0.007663686257549291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H14">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I14">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J14">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N14">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O14">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P14">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q14">
-        <v>10.66940008246933</v>
+        <v>7.85330621821389</v>
       </c>
       <c r="R14">
-        <v>96.02460074222401</v>
+        <v>70.67975596392502</v>
       </c>
       <c r="S14">
-        <v>0.03482012877206387</v>
+        <v>0.03773569151312665</v>
       </c>
       <c r="T14">
-        <v>0.03482012877206388</v>
+        <v>0.03773569151312664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H15">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I15">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J15">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.173052</v>
       </c>
       <c r="O15">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P15">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q15">
-        <v>2.384518156856</v>
+        <v>2.062026852292</v>
       </c>
       <c r="R15">
-        <v>21.460663411704</v>
+        <v>18.558241670628</v>
       </c>
       <c r="S15">
-        <v>0.007781996048444552</v>
+        <v>0.009908184785843177</v>
       </c>
       <c r="T15">
-        <v>0.007781996048444554</v>
+        <v>0.009908184785843177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H16">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I16">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J16">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N16">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O16">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P16">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q16">
-        <v>30.67437366589689</v>
+        <v>42.91341072469856</v>
       </c>
       <c r="R16">
-        <v>276.069362993072</v>
+        <v>386.220696522287</v>
       </c>
       <c r="S16">
-        <v>0.1001073755593704</v>
+        <v>0.2062019719958946</v>
       </c>
       <c r="T16">
-        <v>0.1001073755593704</v>
+        <v>0.2062019719958946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H17">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I17">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J17">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N17">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O17">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P17">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q17">
-        <v>13.264285289118</v>
+        <v>19.12440180665533</v>
       </c>
       <c r="R17">
-        <v>119.378567602062</v>
+        <v>172.119616259898</v>
       </c>
       <c r="S17">
-        <v>0.04328866836621494</v>
+        <v>0.09189410254693474</v>
       </c>
       <c r="T17">
-        <v>0.04328866836621495</v>
+        <v>0.09189410254693474</v>
       </c>
     </row>
   </sheetData>
